--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.2_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1389662129565341</v>
+        <v>0.1271610152763785</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3026457252067112</v>
+        <v>0.3586190353112022</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3026457252067112, 'ngram_match_score': 0.13820472559698385, 'weighted_ngram_match_score': 0.1502062295285035, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.35294117647058826}</t>
+          <t>{'codebleu': 0.35861903531120215, 'ngram_match_score': 0.12644860060772758, 'weighted_ngram_match_score': 0.13879677140631186, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.6}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.699926655141988</v>
+        <v>0.6857177089050649</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
